--- a/similarities/split_global/harmonic_similarity_timestamps_88.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:01:28.480000', '0:01:40.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Db:min7', 'Gb:7', 'Cb:maj7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:maj7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:27', '0:00:56.920000')]</t>
+          <t>('0:00:02.190000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+          <t>('0:00:28.950000', '0:00:32.300000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=2.19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=112.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['A', 'D', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:18.320000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:01:10.583424', '0:01:20.010725')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=70.583424</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:15.620000', '0:00:21.660000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=15.62</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/F#', 'F#:7', 'B:maj']]</t>
+          <t>['Eb', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:13.125602', '0:01:18.292043')]</t>
+          <t>('0:01:13.160000', '0:01:17.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.620000', '0:00:36.300000')]</t>
+          <t>('0:00:09.530000', '0:00:14.240000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=73.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=29.62']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=9.53</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:01:12.980000', '0:01:27.460000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:01:38.620000', '0:01:52.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['E', 'A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb:7/#5', 'Ab', 'F:min7']]</t>
+          <t>['D:maj', 'G:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:21.960000', '0:01:25.520000')]</t>
+          <t>('0:00:09.305410', '0:00:14.541510')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.624000', '0:00:06.624000')]</t>
+          <t>('0:00:13.822000', '0:00:24.195000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=81.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=9.30541</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:7', 'A']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.580000', '0:00:45.880000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:28.508866', '0:00:32.421428')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=40.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=28.508866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'A:7/C#', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C:min', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:00:14.740000', '0:00:20.740000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:56.943000', '0:01:03.992000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=14.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['E/3', 'A:min', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:maj', 'D:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:12.579000', '0:00:17.703000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+          <t>('0:00:05.360000', '0:00:09.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=5.36</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'A', 'D', 'G'], ['G', 'A', 'D', 'G', 'D', 'G'], ['D', 'G', 'A', 'D', 'G', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'B', 'E', 'A'], ['A', 'B', 'E', 'A', 'E', 'A'], ['E', 'A', 'B', 'E', 'A', 'E']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:43.430000', '0:00:50.158000'), ('0:00:44.836000', '0:00:52.535000'), ('0:00:43.934000', '0:00:52.013000')]</t>
+          <t>('0:01:45', '0:01:48.540000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:26.512986', '0:00:34.256840'), ('0:00:13.393711', '0:00:23.088042'), ('0:00:31.644596', '0:00:40.479788')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.43', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=26.512986', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=13.393711', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=31.644596']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>jaah_51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['C:maj7', 'F:maj7', 'Bb:maj7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G']]</t>
+          <t>['Eb:maj7', 'Ab:maj7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:03:31.700000', '0:03:34.600000')]</t>
+          <t>('0:01:34.180000', '0:01:41.119000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.465419', '0:00:19.151224'), ('0:00:42.394399', '0:00:50.173083')]</t>
+          <t>('0:00:31.040000', '0:00:33.150000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-88#t=94.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=31.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:32.060000', '0:00:33.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:52.420000', '0:01:01.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=52.42</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['E:7', 'A', 'D']]</t>
+          <t>['G:7', 'C:maj6', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['G:7', 'C:maj6', 'F:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:32.746870', '0:01:36.589773'), ('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:00:15.540000', '0:00:19.330000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:09.440000'), ('0:00:57.420000', '0:01:03.440000')]</t>
+          <t>('0:00:39.360000', '0:00:42.570000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.74687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=15.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=39.36</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
